--- a/ДопМатериалы/Ресурсы/data/Фурнитура.xlsx
+++ b/ДопМатериалы/Ресурсы/data/Фурнитура.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serkova\YandexDisk\ДЭ 1С\Для подготовки вариант\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MDK_01.09_PR4_BJ\ДопМатериалы\Ресурсы\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39906C-3C83-4278-8F5A-AB54AC492AB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122381F-A87D-4B2A-AB56-92F8A43025C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0A2074ED-5D1C-4868-9353-F8D39517C99D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0A2074ED-5D1C-4868-9353-F8D39517C99D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -486,13 +495,15 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>

--- a/ДопМатериалы/Ресурсы/data/Фурнитура.xlsx
+++ b/ДопМатериалы/Ресурсы/data/Фурнитура.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MDK_01.09_PR4_BJ\ДопМатериалы\Ресурсы\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122381F-A87D-4B2A-AB56-92F8A43025C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C466178F-085C-40DB-ACED-D0848534A450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0A2074ED-5D1C-4868-9353-F8D39517C99D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Артикул</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>FS01PB</t>
-  </si>
-  <si>
-    <t>шт.</t>
   </si>
   <si>
     <t>D63_715 АЛЮМ МАТ_4</t>
@@ -142,10 +139,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,15 +176,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,7 +505,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,19 +520,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -530,180 +540,180 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>1018</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>1.9083600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>1502</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>2.3324400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>1336</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>7.3507199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2063</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1636</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2789</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1640</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
-        <v>2063</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1636</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F9" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2789</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1640</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>150</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <f>150*32</f>
@@ -712,6 +722,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>